--- a/public/template_it.xlsx
+++ b/public/template_it.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\overtime-app-nac\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C3B2E0-05AC-43C9-8544-B04FFCEA65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E675322E-87D6-4870-AB9C-D4539226CE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>NEPAL AIRLINES 
-GS&amp;PM DEPARTMENT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>IT &amp; COMMUNICATION (TIA)</t>
   </si>
@@ -136,6 +132,13 @@
   </si>
   <si>
     <t>Odd Shift Allowance Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEPAL AIRLINES 
+</t>
+  </si>
+  <si>
+    <t>GS&amp;PM DEPARTMENT</t>
   </si>
 </sst>
 </file>
@@ -473,26 +476,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -512,50 +539,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -738,7 +741,7 @@
   <dimension ref="A1:IW49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I6" sqref="I6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,153 +761,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="B8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="C8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="31" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="31"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1355,14 +1360,14 @@
       <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="21">
         <f>SUM(G10:G41)</f>
         <v>0</v>
@@ -1383,140 +1388,140 @@
       <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="37"/>
+      <c r="A43" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="44"/>
       <c r="C43" s="23">
         <f>G42</f>
         <v>0</v>
       </c>
       <c r="D43" s="23"/>
-      <c r="E43" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="37" t="s">
+      <c r="E43" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="39" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="40"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="25">
         <f>H42</f>
         <v>0</v>
       </c>
       <c r="D44" s="25"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="40" t="s">
+      <c r="J44" s="47"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="46"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="39"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="25">
         <f>I42</f>
         <v>0</v>
       </c>
       <c r="D45" s="25"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="40"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="26"/>
-      <c r="L45" s="39"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="41"/>
+      <c r="A46" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="48"/>
       <c r="C46" s="27">
         <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
       <c r="D46" s="27"/>
-      <c r="E46" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="E46" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="27">
         <f>SUM(H44:H45)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="54"/>
+      <c r="I46" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="49"/>
       <c r="K46" s="28">
         <f>J42</f>
         <v>0</v>
       </c>
-      <c r="L46" s="39"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32" t="s">
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="31"/>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
@@ -1533,23 +1538,15 @@
       <c r="L49" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="39">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="E43:H43"/>
@@ -1564,14 +1561,23 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
